--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H2">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.88543315626485</v>
+        <v>0.027767</v>
       </c>
       <c r="N2">
-        <v>3.88543315626485</v>
+        <v>0.083301</v>
       </c>
       <c r="O2">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="P2">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="Q2">
-        <v>281.6020673551384</v>
+        <v>2.674538154182</v>
       </c>
       <c r="R2">
-        <v>281.6020673551384</v>
+        <v>24.070843387638</v>
       </c>
       <c r="S2">
-        <v>0.1254070237259072</v>
+        <v>0.0009386340866241014</v>
       </c>
       <c r="T2">
-        <v>0.1254070237259072</v>
+        <v>0.0009386340866241014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H3">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.37145374994741</v>
+        <v>3.987076</v>
       </c>
       <c r="N3">
-        <v>6.37145374994741</v>
+        <v>11.961228</v>
       </c>
       <c r="O3">
-        <v>0.6211878719349465</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="P3">
-        <v>0.6211878719349465</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="Q3">
-        <v>461.7798005738069</v>
+        <v>384.038134678696</v>
       </c>
       <c r="R3">
-        <v>461.7798005738069</v>
+        <v>3456.343212108264</v>
       </c>
       <c r="S3">
-        <v>0.2056463255068053</v>
+        <v>0.1347788900335245</v>
       </c>
       <c r="T3">
-        <v>0.2056463255068053</v>
+        <v>0.1347788900335245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.6297709659693</v>
+        <v>96.320746</v>
       </c>
       <c r="H4">
-        <v>17.6297709659693</v>
+        <v>288.962238</v>
       </c>
       <c r="I4">
-        <v>0.08052824962745436</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J4">
-        <v>0.08052824962745436</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.88543315626485</v>
+        <v>7.255512666666667</v>
       </c>
       <c r="N4">
-        <v>3.88543315626485</v>
+        <v>21.766538</v>
       </c>
       <c r="O4">
-        <v>0.3788121280650537</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="P4">
-        <v>0.3788121280650537</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="Q4">
-        <v>68.49929664853251</v>
+        <v>698.8563926657827</v>
       </c>
       <c r="R4">
-        <v>68.49929664853251</v>
+        <v>6289.707533992045</v>
       </c>
       <c r="S4">
-        <v>0.03050507761072985</v>
+        <v>0.2452649369707302</v>
       </c>
       <c r="T4">
-        <v>0.03050507761072985</v>
+        <v>0.2452649369707302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H5">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I5">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J5">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.37145374994741</v>
+        <v>0.027767</v>
       </c>
       <c r="N5">
-        <v>6.37145374994741</v>
+        <v>0.083301</v>
       </c>
       <c r="O5">
-        <v>0.6211878719349465</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="P5">
-        <v>0.6211878719349465</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="Q5">
-        <v>112.3272703318391</v>
+        <v>0.5127086399806666</v>
       </c>
       <c r="R5">
-        <v>112.3272703318391</v>
+        <v>4.614377759826</v>
       </c>
       <c r="S5">
-        <v>0.05002317201672452</v>
+        <v>0.0001799360406356685</v>
       </c>
       <c r="T5">
-        <v>0.05002317201672452</v>
+        <v>0.0001799360406356685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>114.377483679854</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H6">
-        <v>114.377483679854</v>
+        <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.5224468641884573</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J6">
-        <v>0.5224468641884573</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.88543315626485</v>
+        <v>3.987076</v>
       </c>
       <c r="N6">
-        <v>3.88543315626485</v>
+        <v>11.961228</v>
       </c>
       <c r="O6">
-        <v>0.3788121280650537</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="P6">
-        <v>0.3788121280650537</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="Q6">
-        <v>444.4060674198465</v>
+        <v>73.62006386932534</v>
       </c>
       <c r="R6">
-        <v>444.4060674198465</v>
+        <v>662.5805748239279</v>
       </c>
       <c r="S6">
-        <v>0.1979092084241436</v>
+        <v>0.0258370968831166</v>
       </c>
       <c r="T6">
-        <v>0.1979092084241436</v>
+        <v>0.0258370968831166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>114.377483679854</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H7">
-        <v>114.377483679854</v>
+        <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.5224468641884573</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J7">
-        <v>0.5224468641884573</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.37145374994741</v>
+        <v>7.255512666666667</v>
       </c>
       <c r="N7">
-        <v>6.37145374994741</v>
+        <v>21.766538</v>
       </c>
       <c r="O7">
-        <v>0.6211878719349465</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="P7">
-        <v>0.6211878719349465</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="Q7">
-        <v>728.7508473015544</v>
+        <v>133.9706857668876</v>
       </c>
       <c r="R7">
-        <v>728.7508473015544</v>
+        <v>1205.736171901988</v>
       </c>
       <c r="S7">
-        <v>0.3245376557643138</v>
+        <v>0.04701725868916127</v>
       </c>
       <c r="T7">
-        <v>0.3245376557643138</v>
+        <v>0.04701725868916127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.4429202435963</v>
+        <v>122.909391</v>
       </c>
       <c r="H8">
-        <v>14.4429202435963</v>
+        <v>368.728173</v>
       </c>
       <c r="I8">
-        <v>0.06597153695137585</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J8">
-        <v>0.06597153695137585</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.88543315626485</v>
+        <v>0.027767</v>
       </c>
       <c r="N8">
-        <v>3.88543315626485</v>
+        <v>0.083301</v>
       </c>
       <c r="O8">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="P8">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="Q8">
-        <v>56.11700118775786</v>
+        <v>3.412825059897</v>
       </c>
       <c r="R8">
-        <v>56.11700118775786</v>
+        <v>30.715425539073</v>
       </c>
       <c r="S8">
-        <v>0.02499081830427301</v>
+        <v>0.001197737234705486</v>
       </c>
       <c r="T8">
-        <v>0.02499081830427301</v>
+        <v>0.001197737234705486</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>122.909391</v>
+      </c>
+      <c r="H9">
+        <v>368.728173</v>
+      </c>
+      <c r="I9">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="J9">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.987076</v>
+      </c>
+      <c r="N9">
+        <v>11.961228</v>
+      </c>
+      <c r="O9">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="P9">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="Q9">
+        <v>490.049083030716</v>
+      </c>
+      <c r="R9">
+        <v>4410.441747276443</v>
+      </c>
+      <c r="S9">
+        <v>0.1719836274282642</v>
+      </c>
+      <c r="T9">
+        <v>0.1719836274282642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>14.4429202435963</v>
-      </c>
-      <c r="H9">
-        <v>14.4429202435963</v>
-      </c>
-      <c r="I9">
-        <v>0.06597153695137585</v>
-      </c>
-      <c r="J9">
-        <v>0.06597153695137585</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.37145374994741</v>
-      </c>
-      <c r="N9">
-        <v>6.37145374994741</v>
-      </c>
-      <c r="O9">
-        <v>0.6211878719349465</v>
-      </c>
-      <c r="P9">
-        <v>0.6211878719349465</v>
-      </c>
-      <c r="Q9">
-        <v>92.022398346253</v>
-      </c>
-      <c r="R9">
-        <v>92.022398346253</v>
-      </c>
-      <c r="S9">
-        <v>0.04098071864710286</v>
-      </c>
-      <c r="T9">
-        <v>0.04098071864710286</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>122.909391</v>
+      </c>
+      <c r="H10">
+        <v>368.728173</v>
+      </c>
+      <c r="I10">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="J10">
+        <v>0.4861499128584522</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.255512666666667</v>
+      </c>
+      <c r="N10">
+        <v>21.766538</v>
+      </c>
+      <c r="O10">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="P10">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="Q10">
+        <v>891.7706432527859</v>
+      </c>
+      <c r="R10">
+        <v>8025.935789275073</v>
+      </c>
+      <c r="S10">
+        <v>0.3129685481954825</v>
+      </c>
+      <c r="T10">
+        <v>0.3129685481954825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>15.127183</v>
+      </c>
+      <c r="H11">
+        <v>45.381549</v>
+      </c>
+      <c r="I11">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="J11">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.027767</v>
+      </c>
+      <c r="N11">
+        <v>0.083301</v>
+      </c>
+      <c r="O11">
+        <v>0.002463719941166009</v>
+      </c>
+      <c r="P11">
+        <v>0.002463719941166009</v>
+      </c>
+      <c r="Q11">
+        <v>0.420036490361</v>
+      </c>
+      <c r="R11">
+        <v>3.780328413249</v>
+      </c>
+      <c r="S11">
+        <v>0.0001474125792007532</v>
+      </c>
+      <c r="T11">
+        <v>0.0001474125792007532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>15.127183</v>
+      </c>
+      <c r="H12">
+        <v>45.381549</v>
+      </c>
+      <c r="I12">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="J12">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.987076</v>
+      </c>
+      <c r="N12">
+        <v>11.961228</v>
+      </c>
+      <c r="O12">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="P12">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="Q12">
+        <v>60.313228286908</v>
+      </c>
+      <c r="R12">
+        <v>542.819054582172</v>
+      </c>
+      <c r="S12">
+        <v>0.02116703844957764</v>
+      </c>
+      <c r="T12">
+        <v>0.02116703844957764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15.127183</v>
+      </c>
+      <c r="H13">
+        <v>45.381549</v>
+      </c>
+      <c r="I13">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="J13">
+        <v>0.05983333443775553</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.255512666666667</v>
+      </c>
+      <c r="N13">
+        <v>21.766538</v>
+      </c>
+      <c r="O13">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="P13">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="Q13">
+        <v>109.7554678674847</v>
+      </c>
+      <c r="R13">
+        <v>987.799210807362</v>
+      </c>
+      <c r="S13">
+        <v>0.03851888340897713</v>
+      </c>
+      <c r="T13">
+        <v>0.03851888340897713</v>
       </c>
     </row>
   </sheetData>
